--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\zbw\contact_manager\src\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AE343-52F1-4FC9-BDAE-77B0DEEE1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8DA202-2589-4FCA-8D4A-806CAEFF9942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="840" yWindow="1695" windowWidth="27750" windowHeight="13785" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Cosimo Augustoni</t>
+  </si>
+  <si>
+    <t>Was?</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Konzept, Analyse</t>
   </si>
 </sst>
 </file>
@@ -113,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -121,6 +127,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +178,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -186,9 +198,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -203,7 +212,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:D46" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:E46" totalsRowCount="1" headerRowDxfId="5">
+  <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
+    <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
+    <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{A1F3EB9C-CCF9-4C1E-9980-10979B87C2BA}" name="Was?"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:D46" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A4:D45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -211,25 +240,7 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
-    <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
-    <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:D46" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A4:D45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -239,7 +250,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:D46" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:D46" totalsRowCount="1" headerRowDxfId="1">
   <autoFilter ref="A4:D45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -247,7 +258,7 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -555,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +576,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,6 +614,9 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -616,6 +630,9 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8DA202-2589-4FCA-8D4A-806CAEFF9942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33859C78-11C9-47DC-8DDB-63071D56B1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1695" windowWidth="27750" windowHeight="13785" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -232,36 +232,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:D46" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A4:D45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E46" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:D46" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A4:D45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -567,7 +571,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +580,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -858,7 +862,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +871,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,8 +909,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -918,6 +925,9 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF7D92-3F7A-48AC-AE81-28EE3283910C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1162,7 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,8 +1200,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -1203,6 +1216,9 @@
       </c>
       <c r="D5">
         <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33859C78-11C9-47DC-8DDB-63071D56B1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD0FAA-52E4-412E-83E9-432584612771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1695" windowWidth="27750" windowHeight="13785" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Ausarbeitung Konzept, Analyse</t>
+  </si>
+  <si>
+    <t>Grundgerüst nach MVP</t>
   </si>
 </sst>
 </file>
@@ -132,9 +135,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -155,9 +161,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -232,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E46" totalsRowCount="1" headerRowDxfId="3">
-  <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="3">
+  <autoFilter ref="A4:E46" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -241,7 +244,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -252,7 +255,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="2">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -261,7 +264,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -272,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,11 +573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -859,13 +862,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -930,213 +933,230 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44789</v>
+        <v>44788</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44790</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44791</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44792</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44793</v>
+        <v>44792</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44794</v>
+        <v>44793</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44795</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44796</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44797</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44798</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44799</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44800</v>
+        <v>44799</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44801</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44802</v>
+        <v>44801</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44803</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44804</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44805</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44806</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44807</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44808</v>
+        <v>44807</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44809</v>
+        <v>44808</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44810</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44811</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44812</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44813</v>
+        <v>44812</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44814</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44815</v>
+        <v>44814</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>44816</v>
+        <v>44815</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>44817</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>44818</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>44819</v>
+        <v>44818</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>44820</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>44821</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>44822</v>
+        <v>44821</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>44823</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>44824</v>
+        <v>44823</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>44825</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>44826</v>
+        <v>44825</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44827</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1176,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD0FAA-52E4-412E-83E9-432584612771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B10D6F-826C-4459-96D8-B18511665FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Grundgerüst nach MVP</t>
+  </si>
+  <si>
+    <t>Speichern der Daten in Json-Files</t>
   </si>
 </sst>
 </file>
@@ -137,9 +140,9 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -161,6 +164,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -215,7 +221,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:E46" totalsRowCount="1" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:E46" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -224,7 +230,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -235,7 +241,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="A4:E46" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -244,11 +250,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -865,7 +871,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,209 +960,260 @@
       <c r="A7" s="2">
         <v>44789</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44790</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44791</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44792</v>
       </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44793</v>
       </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44794</v>
       </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44795</v>
       </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44796</v>
       </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44797</v>
       </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44798</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44799</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44800</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44801</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44802</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44803</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44804</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44805</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44806</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44807</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44808</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44809</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44810</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44811</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44812</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44813</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44814</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44815</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44816</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44817</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44818</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44819</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44820</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44821</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44822</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44823</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44824</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44825</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44826</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44827</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44828</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B10D6F-826C-4459-96D8-B18511665FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E055950B-5545-4112-8F78-DBBAC97BDB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="840" yWindow="1695" windowWidth="27750" windowHeight="13785" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Speichern der Daten in Json-Files</t>
+  </si>
+  <si>
+    <t>Beginn Einbau Benutzeroberfläche, diverse Fragen zu notwendigen Abklärungen notiert</t>
+  </si>
+  <si>
+    <t>Benutzeroberfläche erweitern, Analyse Einbau Validierung</t>
   </si>
 </sst>
 </file>
@@ -138,12 +144,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -164,6 +167,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -254,14 +260,14 @@
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="1">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -270,7 +276,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -281,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,13 +585,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -658,9 +664,21 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44791</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,82 +721,94 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D18">
+        <v>2.75</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
@@ -854,7 +884,7 @@
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table13[Dauer (in Stunden)])</f>
-        <v>3</v>
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
@@ -870,11 +900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1233,7 +1263,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosimo\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E055950B-5545-4112-8F78-DBBAC97BDB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5449C4-C82F-4942-8272-A0613E629822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1695" windowWidth="27750" windowHeight="13785" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Benutzeroberfläche erweitern, Analyse Einbau Validierung</t>
+  </si>
+  <si>
+    <t>Mappings für Properties auf GUI und Planning</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -287,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,20 +588,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.15625" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +623,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -637,7 +640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -654,17 +657,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>44789</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>44790</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44791</v>
       </c>
@@ -681,52 +684,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>44792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>44793</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>44794</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>44795</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>44796</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>44797</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>44798</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
@@ -743,142 +746,142 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -900,20 +903,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" customWidth="1"/>
+    <col min="3" max="3" width="17.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -935,7 +938,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,7 +955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -969,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>44788</v>
       </c>
@@ -986,13 +989,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>44789</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44790</v>
       </c>
@@ -1009,241 +1012,252 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>44791</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>44792</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>44793</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>44794</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>44795</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>44796</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>44797</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>44798</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>44799</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>44800</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>44801</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>44802</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D20">
+        <v>4.25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>44803</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>44804</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>44805</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>44806</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>44807</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>44808</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>44809</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>44810</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>44811</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>44812</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>44813</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>44814</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>44815</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>44816</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>44817</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>44818</v>
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>44819</v>
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>44820</v>
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>44821</v>
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>44822</v>
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>44823</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>44824</v>
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>44825</v>
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>44826</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>44827</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
         <v>44828</v>
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>6</v>
+        <v>10.25</v>
       </c>
     </row>
   </sheetData>
@@ -1263,16 +1277,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26171875" customWidth="1"/>
+    <col min="3" max="3" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -1328,207 +1342,207 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>44789</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>44790</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>44791</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>44792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>44793</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>44794</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>44795</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>44796</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>44797</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>44798</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>7</v>
       </c>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosimo\source\repos\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5449C4-C82F-4942-8272-A0613E629822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EDEF9-425A-4F50-8993-153ACFCC4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Mappings für Properties auf GUI und Planning</t>
+  </si>
+  <si>
+    <t>Offene Fragen und weiteres Vorgehen klären, Einbau Login-Maske mit Login-Funktionalität</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -290,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,16 +595,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" customWidth="1"/>
-    <col min="2" max="2" width="9.26171875" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.68359375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +626,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -657,17 +660,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44789</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44790</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44791</v>
       </c>
@@ -684,52 +687,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44793</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44794</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44795</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44796</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44797</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44798</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
@@ -746,142 +749,142 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -904,19 +907,19 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26171875" customWidth="1"/>
-    <col min="3" max="3" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.68359375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -938,7 +941,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -972,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44788</v>
       </c>
@@ -989,13 +992,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44789</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44790</v>
       </c>
@@ -1012,73 +1015,73 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44791</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44792</v>
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44793</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44794</v>
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44795</v>
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44796</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44797</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44798</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44799</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44800</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44801</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44802</v>
       </c>
@@ -1095,169 +1098,180 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44803</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D21">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44804</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44805</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44806</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44807</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44808</v>
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44809</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44810</v>
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44811</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44812</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44813</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44814</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44815</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44816</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44817</v>
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44818</v>
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44819</v>
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44820</v>
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44821</v>
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44822</v>
       </c>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44823</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44824</v>
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44825</v>
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44826</v>
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44827</v>
       </c>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44828</v>
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>10.25</v>
+        <v>12.75</v>
       </c>
     </row>
   </sheetData>
@@ -1277,16 +1291,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26171875" customWidth="1"/>
-    <col min="3" max="3" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.578125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1308,7 +1322,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -1342,207 +1356,207 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44789</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44790</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44791</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44792</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44793</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44794</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44795</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44796</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44797</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44798</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EDEF9-425A-4F50-8993-153ACFCC4BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97658492-A5CB-41C1-A626-582F89C212D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Offene Fragen und weiteres Vorgehen klären, Einbau Login-Maske mit Login-Funktionalität</t>
+  </si>
+  <si>
+    <t>Login-Maske fertigstellen, Toolbar mit Funktionalität in den Masken einbauen</t>
+  </si>
+  <si>
+    <t>Toolbar mit Funktionalität in den Masken fertigstellen, Beginn Einbau Validierung</t>
   </si>
 </sst>
 </file>
@@ -591,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,9 +760,21 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44803</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,9 +792,21 @@
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44807</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="D24">
+        <v>3.75</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,9 +814,21 @@
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44809</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +932,7 @@
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table13[Dauer (in Stunden)])</f>
-        <v>7.25</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>
@@ -906,13 +948,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97658492-A5CB-41C1-A626-582F89C212D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5BED65-F5C2-4E6F-9D37-C3D64AEDA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Toolbar mit Funktionalität in den Masken fertigstellen, Beginn Einbau Validierung</t>
+  </si>
+  <si>
+    <t>Refactoring Change Tracking, Fixed DatePickers</t>
+  </si>
+  <si>
+    <t>Review Change Tracking</t>
+  </si>
+  <si>
+    <t>Notizen Implementiern</t>
   </si>
 </sst>
 </file>
@@ -156,7 +165,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -597,11 +606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -948,11 +957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1187,11 +1196,22 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44809</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="B27" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -1211,11 +1231,22 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44813</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="B31" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1223,11 +1254,22 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44815</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="B33" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D33">
+        <v>4.5</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1313,7 +1355,7 @@
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>12.75</v>
+        <v>22.25</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1375,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5BED65-F5C2-4E6F-9D37-C3D64AEDA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1A40C-5C11-4861-B9E5-D8C687F41CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Notizen Implementiern</t>
+  </si>
+  <si>
+    <t>Code Cleanup, Klassendiagram, Testing</t>
+  </si>
+  <si>
+    <t>Trainee Dialog</t>
+  </si>
+  <si>
+    <t>Trainee Abschliessen</t>
+  </si>
+  <si>
+    <t>Trainee Backend</t>
+  </si>
+  <si>
+    <t>Projekt Abschliessen</t>
   </si>
 </sst>
 </file>
@@ -957,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1308,18 @@
       <c r="A37" s="2">
         <v>44819</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="B37" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.78125</v>
+      </c>
+      <c r="D37">
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -1311,13 +1337,35 @@
       <c r="A40" s="2">
         <v>44822</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="B40" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44823</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="B41" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D41">
+        <v>2.5</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -1325,17 +1373,36 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44825</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="B43" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44826</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="B44" s="4">
+        <v>0.71875</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -1355,7 +1422,7 @@
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>22.25</v>
+        <v>31.25</v>
       </c>
     </row>
   </sheetData>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1A40C-5C11-4861-B9E5-D8C687F41CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00034E9-B627-4F90-BE04-1EB2F86F7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Projekt Abschliessen</t>
+  </si>
+  <si>
+    <t>Testing und Refactoring</t>
+  </si>
+  <si>
+    <t>Weiter mit Validierung</t>
+  </si>
+  <si>
+    <t>Validierung fertigstellen, Beginn Einbau Dashboard</t>
+  </si>
+  <si>
+    <t>Einbau Dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard fertigstellen</t>
+  </si>
+  <si>
+    <t>17;15</t>
+  </si>
+  <si>
+    <t>Trainee-Übersicht und Diagramm mit Lernenden im Dashboard eingebaut</t>
   </si>
 </sst>
 </file>
@@ -180,7 +201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -323,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -869,6 +890,18 @@
       <c r="A29" s="2">
         <v>44812</v>
       </c>
+      <c r="B29" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -884,79 +917,151 @@
       <c r="A32" s="2">
         <v>44815</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D40">
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table13[Dauer (in Stunden)])</f>
-        <v>17.5</v>
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>
@@ -972,11 +1077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1438,11 +1543,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF7D92-3F7A-48AC-AE81-28EE3283910C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00034E9-B627-4F90-BE04-1EB2F86F7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A97BA-71EA-452E-961A-49BED6DF4C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -201,7 +201,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1077,11 +1077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1503,7 +1503,10 @@
         <v>0.71875</v>
       </c>
       <c r="C44" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D44">
+        <v>1.25</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>28</v>
@@ -1527,7 +1530,7 @@
       </c>
       <c r="D47">
         <f>SUBTOTAL(109,Table14[Dauer (in Stunden)])</f>
-        <v>31.25</v>
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1550,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kifkof\source\repos\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\zbw\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A97BA-71EA-452E-961A-49BED6DF4C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F0478-0EE0-4E0B-8B77-614CA5DD6471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>Trainee-Übersicht und Diagramm mit Lernenden im Dashboard eingebaut</t>
+  </si>
+  <si>
+    <t>Erstellung EmployeeDetailDialog</t>
+  </si>
+  <si>
+    <t>Implementation Change-History</t>
+  </si>
+  <si>
+    <t>PR Review Notizen</t>
+  </si>
+  <si>
+    <t>CSV Import</t>
+  </si>
+  <si>
+    <t>Refactoring Namespaces und CSV-Import</t>
+  </si>
+  <si>
+    <t>Verbesserung Change-History Dialog und Erkennung von Änderungen in Erfassungsmasken</t>
+  </si>
+  <si>
+    <t>Erkennung von Änderungen in Erfassungsmasken</t>
+  </si>
+  <si>
+    <t>PR Review von Patrik</t>
+  </si>
+  <si>
+    <t>Testing, Bugfixing und Abschluss Projekt</t>
   </si>
 </sst>
 </file>
@@ -188,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,11 +226,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -284,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:E46" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3EEA0226-D493-4917-BA6C-7B72C38FDF40}" name="Table13" displayName="Table13" ref="A4:E46" totalsRowCount="1" headerRowDxfId="8">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -293,7 +332,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -304,7 +343,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A4:E46" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -313,18 +352,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -333,18 +372,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?"/>
+    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,11 +681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1077,11 +1116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -1546,17 +1585,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF7D92-3F7A-48AC-AE81-28EE3283910C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,7 +1616,7 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>44828</v>
       </c>
     </row>
@@ -1594,11 +1633,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44788</v>
       </c>
@@ -1644,6 +1683,18 @@
       <c r="A11" s="2">
         <v>44794</v>
       </c>
+      <c r="B11" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1670,158 +1721,278 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44801</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44802</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44803</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44804</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44805</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44806</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44807</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44808</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44809</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44810</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44811</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44812</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44813</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44814</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44815</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44816</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44817</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44818</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44819</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44820</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44821</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44822</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44823</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44824</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44825</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44826</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44827</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44828</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table1[Dauer (in Stunden)])</f>
-        <v>3</v>
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\zbw\contact-manager\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187F0478-0EE0-4E0B-8B77-614CA5DD6471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940800A5-7715-482B-A338-512E242D827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Dashboard fertigstellen</t>
   </si>
   <si>
-    <t>17;15</t>
-  </si>
-  <si>
     <t>Trainee-Übersicht und Diagramm mit Lernenden im Dashboard eingebaut</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Testing, Bugfixing und Abschluss Projekt</t>
+  </si>
+  <si>
+    <t>Readony-User testen, Fixing und Applikationsbeschrieb ergänzen</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,11 +232,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -289,9 +295,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -332,7 +335,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -343,7 +346,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="7">
   <autoFilter ref="A4:E46" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -352,18 +355,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="4">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -372,11 +375,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,8 +1047,8 @@
       <c r="A40" s="2">
         <v>44823</v>
       </c>
-      <c r="B40" t="s">
-        <v>34</v>
+      <c r="B40" s="4">
+        <v>0.71875</v>
       </c>
       <c r="C40" s="4">
         <v>0.75</v>
@@ -1054,7 +1057,7 @@
         <v>0.75</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,7 +1077,7 @@
       <c r="B43" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="8">
         <v>0.5</v>
       </c>
       <c r="D43">
@@ -1084,9 +1087,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44827</v>
+        <v>44826</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,7 +1115,7 @@
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table13[Dauer (in Stunden)])</f>
-        <v>36.25</v>
+        <v>37.25</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148C418-6D1C-4713-BE2C-8E34CDA13568}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1585,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF7D92-3F7A-48AC-AE81-28EE3283910C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1770,7 +1785,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1936,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1973,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/Projektinfo/Stundenprotokoll.xlsx
+++ b/Projektinfo/Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Desktop\Programming_Foundation_II\Projektarbeit\Projektinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\zbw\contact-manager\Projektinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940800A5-7715-482B-A338-512E242D827A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB0B7A-C570-4818-AE3F-C4DC7FA969A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
+    <workbookView xWindow="40350" yWindow="1950" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{A587525E-0DD3-41BC-BD44-5415FACA60EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Patrick Nef " sheetId="4" r:id="rId1"/>
@@ -241,9 +241,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -295,6 +292,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -335,7 +335,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{24B4437A-54AB-456A-8F4D-D2267BF202D7}" name="Datum" totalsRowLabel="Total" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{332A4454-D75C-42FE-A88B-0127FD945BC8}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{C1F7D162-B241-4278-929E-19476FBBDF62}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{55CC84B2-B1D6-498A-B710-4C1B9B5D24ED}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C13F70F9-AA50-45AC-9FC4-D629FD96977B}" name="Table14" displayName="Table14" ref="A4:E47" totalsRowCount="1" headerRowDxfId="6">
   <autoFilter ref="A4:E46" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -355,18 +355,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{ECADE51F-0BE5-4E18-9708-DB4067A31F3A}" name="Datum" totalsRowLabel="Total" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{F77575EA-DE3E-4E65-A947-50684B707C1C}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{50C4ECC1-E4E5-400E-8B27-DB2EC8EF72C0}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{A49F3DBD-E0FE-4C21-95F1-FC16F953169D}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1C36D830-1F03-429C-A742-C1250D4256C7}" name="Was?" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}" name="Table1" displayName="Table1" ref="A4:E46" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="A4:E45" xr:uid="{CA5EB60E-F8B9-4DC7-BC2E-2F4517F6186C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -375,11 +375,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5CAEBF57-CC40-40F3-9845-CFCDECBBB187}" name="Datum" totalsRowLabel="Total" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1376C805-0C6A-4550-A447-3DA6D9157043}" name="Beginn"/>
     <tableColumn id="3" xr3:uid="{0F5A675D-D46C-413A-A881-4A4510951BDD}" name="Ende"/>
     <tableColumn id="4" xr3:uid="{911F8EDA-3C5F-446A-87F4-B942CFDDBD4E}" name="Dauer (in Stunden)" totalsRowFunction="sum"/>
-    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{02BFF2CA-5EF4-44CF-984F-51E896538812}" name="Was?" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD32F-3B6D-41A7-8971-D5611D9EB56B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF7D92-3F7A-48AC-AE81-28EE3283910C}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,10 +1982,10 @@
         <v>0.75</v>
       </c>
       <c r="C43" s="4">
-        <v>0.875</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>43</v>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D46">
         <f>SUBTOTAL(109,Table1[Dauer (in Stunden)])</f>
-        <v>37.5</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
